--- a/loft_data.xlsx
+++ b/loft_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GNEZDOGNEZDO FOREST лофт с верандой и мангалом.</t>
+          <t>WorkShop Loft№11 (с верандой перед входом)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Москва, улица Автомобильный проезд 10с19</t>
+          <t xml:space="preserve"> Москва, Наставнический пер. 17 стр. 1 (вход №11)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>moe.loft.gnezdo@gmail.com</t>
+          <t>info@workshoploft.ru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+7 958 827 71 73</t>
+          <t>+7 (495)120 34 54</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,2472 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAКрасивый лофт с верандой и грилем MULTIROOM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Смирновская д. 25 стр. 3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AG LoftAG Loft WHITE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Варшавское шоссе 33 стр.5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anna@agloft.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+79808006243</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Let's Party LoftSurf House - Лофт с верандой и барбекю</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Самокатная, д. 4, стр. 18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>surf-house@mail.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>+7 499 226-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MSK PLACEVida loft</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MSK PLACEDeep Loft - лофт с подвалом</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Let's Party LoftRuin House в стиле паба</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Трифоновская, 15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>surf-house@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+7 499 226-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AgnosticKROV Loft</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Самокатная улица д 4 строение 32</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Garmonir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+7 9055448835</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOFT FOR PARTYGALLERY LOFT: ПРИВАТНАЯ ТЕРРИТОРИЯ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Новорязанская д. 26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+7 (495) 183-94-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEАвиатор - Неоновый лофт в центре Москвы 5 минут от метро</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Ольховская 14, с5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEBRUTAL - лофт с выходом во двор, 8 минут от метро Бауманская</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица 74-76к1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AgnosticAGNOSTIC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Измайловское шоссе 73жс5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>garmonir@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+7 9263579391</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Коэффициент теплаКот Шрёдингера</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Электродная 2 стр 32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a9162981998@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+79162981998</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAУниверсальный лофт «BALANCE», 3 минуты от метро</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, 50/12с1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>WorkShop Loft№10 с верандой перед входом</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, наставнический пер. 17 стр. 1 (вход №10)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>info@workshoploft.ru</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>+7(495)1203454</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GNEZDOGNEZDO FOREST лофт с верандой и мангалом.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, улица Автомобильный проезд 10с19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moe.loft.gnezdo@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+7 958 827 71 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VG LOFTДвухуровневый Лофт VG зал "BETA"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Малая Семеновская дом 5/1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>vg.studios17@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>+79661277115</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MSK PLACEKarma Loft - в стиле суперметалл</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт Василий Кандинский</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт Эгон Шиле</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>West LoftПросторный лофт в стиле Western</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Слободской переулок 6с4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>uskina1395@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8 916 380 97 57</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYWEST SIDE VIP на Белорусской с караоке</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Ленинградский проспект 26к1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-52-98</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEURANIUM - светлый лофт с большим количеством окон</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица 74-76к1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAКомфортный, стильный, просторный лофт «BRONZA»  в центре Москвы, 10 мин. от метро</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Александра Солженицина, 27</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaНебольшой светлый лофт на Таганской с картинами художника Моне</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Народная, 8, Casa Picassa</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Аутентичный Loft Fantom с панорамными окнами и лаундж-зоной</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул.Бакунинская, д.74-76к2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>fabrikloft@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>+7 9257932565</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Коэффициент теплаКоэффициент притяжения</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул.Мясницкая 13 стр 18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>a9162981998@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>+79850118011</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INFOLOFTMSKX13 | ДВУХУРОВНЕВЫЙ ЛОФТ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновкая, 5с1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>infoloftmsk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>+7 (999) 872-61-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт Roden</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Лофт АнтресольЛофт  Антресоль</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 69 с1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>loftantresol@gmail.com</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89301703019</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VG LOFTALFA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Малая Семеновская дом 5/1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>vg.studios17@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>+79661277115</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INFOLOFTMSKOcean Vibe | Двухуровневый Лофт</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновкая, 5с1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>infoloftmsk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>+7 (999) 872-61-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>|BUILDING 53 |Пространство с большой террасой. Hall 53</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Самокатная 4с53</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>massimoloft@gmail.com</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89031888081</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LOFTBLACKOUT. Пространства  с летними верандамиУютный лофт с яркими акцентами</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновская, 5с10</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>+7 (495) 432-01-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MSK PLACEBudda loft</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, бауманская улица 20с7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WorkShop Loft№1 (с выходом на крышу здания)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, м. электрозаводская ул. малая семеновская д. 5 стр. 1 (7 этаж)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>info@workshoploft.ru</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>+74951203454</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт из белого кирпича с верандой Микеланджело</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ATMOS Loft</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Измайловское шоссе, д. 73Ж, с.5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>offer.atmos@gmail.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>+7 951 191-58-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaМягкий лофт на Таганской с картинами Пикассо</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Народная, 8, Casa Picassa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VG LOFTСтильный лофт Дельта у метро</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Электродный проезд, 16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>vg.studios17@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>+79661277115</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYВысота Loft с террасой на крыше</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Вишняковская д. 22А</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>+74991101614</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>INFOLOFTMSKTROPICANA | Идеальный лофт для ваших мероприятий 5 мин. от метро</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Электродная 2стр29</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>infoloftmsk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89998726151</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSK PLACESava loft </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, бауманская улица 20с7</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Loft AtmosferaSurius</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Варшавское шоссе 33с13</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>atmosfera.loft2023@gmail.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89296210471</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Let's Party LoftHawaii House - лофт с верандой</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Самокатная, д. 4, стр. 1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>surf-house@mail.ru</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>+7 499 226-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACESapphire</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица, 69с1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>+7 937 063-00-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт на Таганской в стиле картин Малевича</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Народная, 8, Casa Picassa</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYGood girl : лофт с барной стойкой из розового меха!</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Спартаковская площадь 16\15</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-16-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СЕТЬ ЛОФТОВ BOGEMAСтильный лофт ЭЙФОРИЯ в центре Москвы, 3 мин. от метро </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Марксистская улица, дом 20с8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AG LoftAG Loft ROOM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Варшавское шоссе, 33 стр.5, въезд с Новоданиловской набережной</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>+79808006243</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GNEZDOЛофт GNEZDO GARAGE </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, улица Автомобильный проезд 10с19</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>moe.loft.gnezdo@gmail.com</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>+7 958 827 71 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEОлимп лофт, лофт с верандой и грилем в центре Москвы, 5 мин от метро</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Ольховская 14, с5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MSK PLACEPrisma Loft</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOFT FOR PARTYKARTEL LOFT на Бауманской </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Спартаковская площадь 16\15</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-16-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MSK PLACECandy Loft</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MSK PLACESimple loft</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, бауманская улица 20с7</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MSK PLACELuna Loft</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>MSK PLACEVega Loft</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Nenoun@mail.ru</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MSK PLACERich Loft с большим столом</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOFTBLACKOUT. Пространства  с летними верандамиЛофт 1914. Исторический лофт с выходом на веранду </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновская, 5с10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>+7 (495) 432-01-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MSK PLACECactus loft</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, бауманская улица 15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт Анри Руссо</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaСтильный лофт Модильяни на Бауманской</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYMoon Loft на Бауманской с караоке</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 69/1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-53-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MSK PLACERadiola Loft</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAPARADOX- стильный двух-уровневый арт-лофт со сценой</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Александра Солженицина, 27</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Let's Party LoftSoul House с уличной территорией</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Новорязанская, д. 29, стр. 4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>surf-house@mail.ru</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>+7 499 226-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAЭGO Красивый лофт с верандой на крыше</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, доброслободская 21</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AG LoftAG Loft Тренерская</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Варшавское шоссе, 33 стр.5, въезд с Новоданиловской набережной</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>+79808006243</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ART ПРОСТРАНСТВО MirselizБелый минималистичный лофт с кухней и панорамными окнами (лофт МОНИКА) </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, 1-я Фрезерная, д.2/1 стр. 11</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>mail@mirseliz.ru</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>8 (939)888-00-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaСветлый лофт Магритт в стиле французской летней веранды на Бауманской</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бауманская улица, дом 11, строение 8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MSK PLACESteklo loft</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, бауманская улица 20с7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>|BUILDING 53 |2-х уровневое пространство с террасой. Hall 14</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, 4-й Рощинский Проезд 14</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>massimoloft@gmail.com</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89031888081</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEFLUFFY - мягкий лофт недалеко от метро</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица 74-76к1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Аренда лофтов в Москве Casa PicassaЛофт Ван Гог на Таганке</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Народная, 8, Casa Picassa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>info@casapicassa.ru</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-27-73</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Коэффициент теплаИмпульс</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Первомайская 5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>a9162981998@gmail.com</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>+7 985 011-80-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYSpace Loft на Бауманской с караоке</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 69/1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-53-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEСloud</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица, 69с1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>+7 937 063-00-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Лофт ЭХОЛофт "ЭХО" : яркий лофт с караоке</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Автозаводская 17к1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cyberman122@gmail.com</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>+79959030740</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>LOFTBLACKOUT. Пространства  с летними верандамиПремиальный медный лофт Cuprum с летней верандой</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновская, 5с10</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>+7 (495) 432-01-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYBad Girl (пилон-loft) на Бауманской с караоке</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 69/1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-53-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>WorkShop Loft№9 (вход с улицы)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Наставнический пер. 17 стр.1 (вход №9)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>info@workshoploft.ru</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>+7(495)120-34-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>СЕТЬ ЛОФТОВ BOGEMAESTETIKA - уютный лофт с окнами и караоке в стиле квартиры, рядом с метро</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Улица Малая Почтовая 2/2 стр 1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>info@bogema-party.ru</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89099060421</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Loft_na_palmLoft_na_Palm</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Большая Семеновская 11с2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Loftnapalm@gmail.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>+7 9778033683</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Коэффициент тепла</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Электродная 2 стр 29</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>a9162981998@gmail.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>+79850118011</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Пространство 17/32Пространство17/32</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Большая почтовая 34с6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>prostranstvo17.32@gmail.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89104333793</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BestMemories Studio, ВДНХЛофт Космос</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Проспект Мира 119, стр186</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>kosmos.loft@gmail.com</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>+7 925 401 31 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYWEST SIDE LOFT</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Ленинградский проспект 26к1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-52-98</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AG LoftAG Loft зал URBAN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Варшавское шоссе 33 стр 3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>anna@agloft.ru</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>+79808006243</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MSK PLACEWhite Swan</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MSK PLACEQueen Loft</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Лофт на Рижском</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, 1-й Рижский переулок 2с10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>questwiy@gmail.com</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>+79035501844</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BAUMAN SPACEMETALLIC - металлический лофт в 8 минутах от метро</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская улица 74-76к1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>aviator.loft.1003@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>+7 958 578 23 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LOFTBLACKOUT. Пространства  с летними верандамиЛофт HIGHLIGHT с выходом на крышу с панорамным видом</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Малая Семеновская, 5с1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NO EMAIL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>+7 (495) 432-01-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MSK PLACEKristall loft</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LOFT FOR PARTYSun Loft на Бауманской с караоке</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 69/1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>loftforparty@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>+7 (499) 302-53-72</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MSK PLACEDiamond Loft - лофт с рулеткой</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>WorkShop Loft№2 (веранда + уютный лофт)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, м. электрозаводская ул. малая семеновская д. 5 стр. 1 (7 этаж)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>info@workshoploft.ru</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>+74951203454</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MSK PLACEAloha loft</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Бакунинская 72с2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Nenoun@mail.ru</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>+7 (495)0080403</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>BestMemories Studio, ВДНХPresident XL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, Проспект Мира 119, стр186</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>kosmos.loft@gmail.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>+7 925 401 31 59</t>
         </is>
       </c>
     </row>
